--- a/docs/hardware/Init Comps.xlsx
+++ b/docs/hardware/Init Comps.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Proiecte\Electronica\OpenWave\docs\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7963BE-E35A-4187-B35F-A2B2607E6FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DD1BE-C89F-4689-A88F-5854AB5ECD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{428657F5-79EB-46CE-9680-8B7160246E9C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{428657F5-79EB-46CE-9680-8B7160246E9C}"/>
   </bookViews>
   <sheets>
     <sheet name="Init Comps" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Init Comps'!$A$1:$E$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Init Comps'!$A$1:$E$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="202">
   <si>
     <t>Component Name</t>
   </si>
@@ -109,42 +109,18 @@
     <t>System Control</t>
   </si>
   <si>
-    <t>TBD-MCU1</t>
-  </si>
-  <si>
-    <t>TBD-MCU2</t>
-  </si>
-  <si>
     <t>ARM Cortex-M4/M7; â‰¥100MHz; 256KB Flash; 128KB RAM; USB; SPI; CAN; ADC 12-bit</t>
   </si>
   <si>
     <t>Battery Management IC</t>
   </si>
   <si>
-    <t>Power Management</t>
-  </si>
-  <si>
-    <t>Battery Charging &amp; Power Path</t>
-  </si>
-  <si>
-    <t>TBD-PMIC1</t>
-  </si>
-  <si>
-    <t>TBD-PMIC2</t>
-  </si>
-  <si>
-    <t>Single cell Li-Ion charging; USB-PD support optional; Battery protection; Clean power switching</t>
-  </si>
-  <si>
     <t>Power Supply</t>
   </si>
   <si>
     <t>Clean Analog Power</t>
   </si>
   <si>
-    <t>TBD-REG1</t>
-  </si>
-  <si>
     <t>TBD-REG2</t>
   </si>
   <si>
@@ -154,9 +130,6 @@
     <t>Digital Logic Power</t>
   </si>
   <si>
-    <t>TBD-REG3</t>
-  </si>
-  <si>
     <t>TBD-REG4</t>
   </si>
   <si>
@@ -592,15 +565,9 @@
     <t>Stable Ref Voltage</t>
   </si>
   <si>
-    <t>TBD-REG5</t>
-  </si>
-  <si>
     <t>TBD-REG6</t>
   </si>
   <si>
-    <t>TBD-REF1</t>
-  </si>
-  <si>
     <t>TBD-REF2</t>
   </si>
   <si>
@@ -638,6 +605,54 @@
   </si>
   <si>
     <t>https://jlcpcb.com/partdetail/TexasInstruments-LMH6639MFNOPB/C131982</t>
+  </si>
+  <si>
+    <t>STM32H743VIT6</t>
+  </si>
+  <si>
+    <t>C114409</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://ro.mouser.com/ProductDetail/STMicroelectronics/STM32H743VIT6?qs=FNcb6ahWXRw0Me5k2ZHgWw%3D%3D</t>
+  </si>
+  <si>
+    <t>https://ro.mouser.com/ProductDetail/Texas-Instruments/TPS70933DBVR?qs=Z9twEOuL%252B%2FJOaGO60BtvLA%3D%3D</t>
+  </si>
+  <si>
+    <t>TPS70933DBVR</t>
+  </si>
+  <si>
+    <t>C89347</t>
+  </si>
+  <si>
+    <t>AP7363-33D-13</t>
+  </si>
+  <si>
+    <t>https://ro.mouser.com/ProductDetail/Diodes-Incorporated/AP7363-33D-13?qs=wo71MgyKIyHiOg1BWxA5bA%3D%3D</t>
+  </si>
+  <si>
+    <t>TPSM863252</t>
+  </si>
+  <si>
+    <t>https://ro.mouser.com/ProductDetail/Texas-Instruments/TPSM863252RDXR?qs=17ckDYBRdem3VGqByrpWcQ%3D%3D</t>
+  </si>
+  <si>
+    <t>C108723</t>
+  </si>
+  <si>
+    <t>C19190416</t>
+  </si>
+  <si>
+    <t>REF3333AIDBZR</t>
+  </si>
+  <si>
+    <t>C130016</t>
+  </si>
+  <si>
+    <t>https://ro.mouser.com/ProductDetail/Texas-Instruments/REF3333AIDBZR?qs=7KoJEllG3D1OY7cEjajdfg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -682,8 +697,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,8 +768,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C098B3-4C32-4BB6-8B73-766D9F76A994}" name="Init_Comps" displayName="Init_Comps" ref="A1:I34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:I34" xr:uid="{72C098B3-4C32-4BB6-8B73-766D9F76A994}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{72C098B3-4C32-4BB6-8B73-766D9F76A994}" name="Init_Comps" displayName="Init_Comps" ref="A1:I35" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I35" xr:uid="{72C098B3-4C32-4BB6-8B73-766D9F76A994}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D849A4F0-8797-46BF-B901-1D45F79647C9}" uniqueName="1" name="Component Name" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{96BC05AC-2EF9-4656-96C2-2ACB73E9099F}" uniqueName="2" name="Component Type" queryTableFieldId="2" dataDxfId="7"/>
@@ -1087,10 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7585402E-0686-492B-A06F-C74BD9F37401}">
-  <dimension ref="A1:I34"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1118,7 @@
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
     <col min="9" max="9" width="89.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1136,864 +1152,864 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" t="s">
         <v>188</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H4" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F5" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E6" t="s">
         <v>194</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="E7" t="s">
         <v>196</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="F7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="C8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="B14" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>102</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>113</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="1" t="s">
+      <c r="B26" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>144</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>159</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>150</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="B33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C32" s="1" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>161</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
